--- a/data/pca/factorExposure/factorExposure_2010-03-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01857270326453452</v>
+        <v>0.01710955195546252</v>
       </c>
       <c r="C2">
-        <v>0.003348964461936738</v>
+        <v>0.000973350291171924</v>
       </c>
       <c r="D2">
-        <v>0.0121230179454038</v>
+        <v>0.007244335690841957</v>
       </c>
       <c r="E2">
-        <v>-0.01945927873712963</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>2.571333177488962e-05</v>
+      </c>
+      <c r="F2">
+        <v>-0.009185806624583345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1282838500751085</v>
+        <v>0.09365680656558341</v>
       </c>
       <c r="C4">
-        <v>0.04727260563216527</v>
+        <v>0.01579880303632369</v>
       </c>
       <c r="D4">
-        <v>0.04553253492085302</v>
+        <v>0.08377556931245551</v>
       </c>
       <c r="E4">
-        <v>-0.00240924258159046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02961550144252205</v>
+      </c>
+      <c r="F4">
+        <v>0.02924331695116577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1155143662681557</v>
+        <v>0.1554468962026786</v>
       </c>
       <c r="C6">
-        <v>-0.01914083047607772</v>
+        <v>0.02464751417879232</v>
       </c>
       <c r="D6">
-        <v>0.0004005676579831031</v>
+        <v>-0.02248181100160558</v>
       </c>
       <c r="E6">
-        <v>-0.02576222441157573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01069319265566687</v>
+      </c>
+      <c r="F6">
+        <v>0.0490892808043933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07835815628200449</v>
+        <v>0.05970263214451773</v>
       </c>
       <c r="C7">
-        <v>0.02653419516430101</v>
+        <v>-0.0009953265401696494</v>
       </c>
       <c r="D7">
-        <v>0.06277647331704138</v>
+        <v>0.05234043110180112</v>
       </c>
       <c r="E7">
-        <v>-0.04048654089079511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01317781461996272</v>
+      </c>
+      <c r="F7">
+        <v>0.04440578358288665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05414587756480699</v>
+        <v>0.05825054549815925</v>
       </c>
       <c r="C8">
-        <v>0.01128883932856917</v>
+        <v>-0.01335519639953471</v>
       </c>
       <c r="D8">
-        <v>0.027188847945573</v>
+        <v>0.03114154844949329</v>
       </c>
       <c r="E8">
-        <v>-0.02279304865031341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01577114976566776</v>
+      </c>
+      <c r="F8">
+        <v>-0.02927800071325456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09732508769151504</v>
+        <v>0.07161947542230085</v>
       </c>
       <c r="C9">
-        <v>0.04834294484954373</v>
+        <v>0.01171547796756511</v>
       </c>
       <c r="D9">
-        <v>0.02275448471478977</v>
+        <v>0.08442917578985984</v>
       </c>
       <c r="E9">
-        <v>-0.01548980637781951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02382264382981526</v>
+      </c>
+      <c r="F9">
+        <v>0.04893043782531197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07257551582544942</v>
+        <v>0.09478340340437365</v>
       </c>
       <c r="C10">
-        <v>-0.1650401794884738</v>
+        <v>0.0182149086569457</v>
       </c>
       <c r="D10">
-        <v>-0.09393417734120435</v>
+        <v>-0.1699419744971607</v>
       </c>
       <c r="E10">
-        <v>-0.01899097007120291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.03830014488804391</v>
+      </c>
+      <c r="F10">
+        <v>-0.05604387316641629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09627001406398811</v>
+        <v>0.08772032347122023</v>
       </c>
       <c r="C11">
-        <v>0.04466581007964789</v>
+        <v>0.01147200083222028</v>
       </c>
       <c r="D11">
-        <v>0.06741925830664716</v>
+        <v>0.1167304303642506</v>
       </c>
       <c r="E11">
-        <v>-0.0482950492148034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0475464696360177</v>
+      </c>
+      <c r="F11">
+        <v>0.020220739468771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09988858708659648</v>
+        <v>0.09233840634575499</v>
       </c>
       <c r="C12">
-        <v>0.0510318305929389</v>
+        <v>0.008950428349775138</v>
       </c>
       <c r="D12">
-        <v>0.07516818080450825</v>
+        <v>0.1277900947133355</v>
       </c>
       <c r="E12">
-        <v>-0.04531864304242818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04780062187093737</v>
+      </c>
+      <c r="F12">
+        <v>0.0190419850617885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04420063778298772</v>
+        <v>0.04399569180887651</v>
       </c>
       <c r="C13">
-        <v>0.03006219406641145</v>
+        <v>0.00404753192629093</v>
       </c>
       <c r="D13">
-        <v>-0.01410830367493813</v>
+        <v>0.04875621399716529</v>
       </c>
       <c r="E13">
-        <v>-0.004808299026420527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01251026104543044</v>
+      </c>
+      <c r="F13">
+        <v>0.009224069080527702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02677291141478154</v>
+        <v>0.02257209466675243</v>
       </c>
       <c r="C14">
-        <v>0.003893461163088927</v>
+        <v>0.01413384443160899</v>
       </c>
       <c r="D14">
-        <v>0.007351980684592636</v>
+        <v>0.032276865031148</v>
       </c>
       <c r="E14">
-        <v>-0.004678732965951735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01772860583970359</v>
+      </c>
+      <c r="F14">
+        <v>0.01758992819947035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02995212919591314</v>
+        <v>0.03111774529770812</v>
       </c>
       <c r="C15">
-        <v>0.02534839389809189</v>
+        <v>0.005267393439886068</v>
       </c>
       <c r="D15">
-        <v>0.00591228702186629</v>
+        <v>0.04471718501847644</v>
       </c>
       <c r="E15">
-        <v>-0.02036110107275158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.007468336437982968</v>
+      </c>
+      <c r="F15">
+        <v>0.02806714647179003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.1005938428046594</v>
+        <v>0.07327135402003603</v>
       </c>
       <c r="C16">
-        <v>0.03587338314690152</v>
+        <v>0.002950540254010586</v>
       </c>
       <c r="D16">
-        <v>0.07515918928931821</v>
+        <v>0.1238153569275116</v>
       </c>
       <c r="E16">
-        <v>-0.05157604759093844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06302159168602396</v>
+      </c>
+      <c r="F16">
+        <v>0.02535698350779952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02558929424595124</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003969556867284908</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02202401415627038</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.004951468850711713</v>
+      </c>
+      <c r="F18">
+        <v>-0.0167683099070764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05418171627367791</v>
+        <v>0.0605356266817906</v>
       </c>
       <c r="C20">
-        <v>0.01386300938844789</v>
+        <v>0.0003640694144595785</v>
       </c>
       <c r="D20">
-        <v>0.04844598308165517</v>
+        <v>0.07741473200279121</v>
       </c>
       <c r="E20">
-        <v>0.003858990509312547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05583156464637492</v>
+      </c>
+      <c r="F20">
+        <v>0.02381433412384458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02028099098098205</v>
+        <v>0.03884924333853172</v>
       </c>
       <c r="C21">
-        <v>-0.008185428714951488</v>
+        <v>0.006727550534352856</v>
       </c>
       <c r="D21">
-        <v>-0.0004394407332493997</v>
+        <v>0.03507578182059915</v>
       </c>
       <c r="E21">
-        <v>0.02963258128265444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.007974252950053927</v>
+      </c>
+      <c r="F21">
+        <v>-0.02080160513130009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02970686531204549</v>
+        <v>0.04394529661686004</v>
       </c>
       <c r="C22">
-        <v>-0.02321561571088989</v>
+        <v>0.001242668312277783</v>
       </c>
       <c r="D22">
-        <v>-0.02524677177939787</v>
+        <v>0.001486010328400113</v>
       </c>
       <c r="E22">
-        <v>-0.04607048452759137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02770294867659075</v>
+      </c>
+      <c r="F22">
+        <v>-0.01108746611824058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02980637719281845</v>
+        <v>0.04397892711172222</v>
       </c>
       <c r="C23">
-        <v>-0.02319191639708227</v>
+        <v>0.001263547104347996</v>
       </c>
       <c r="D23">
-        <v>-0.02474631971734956</v>
+        <v>0.001578145223958915</v>
       </c>
       <c r="E23">
-        <v>-0.04802207942652557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02801133054180482</v>
+      </c>
+      <c r="F23">
+        <v>-0.01054500636277905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.1044489311909561</v>
+        <v>0.07941098634508141</v>
       </c>
       <c r="C24">
-        <v>0.04112948671329632</v>
+        <v>0.003048528548247003</v>
       </c>
       <c r="D24">
-        <v>0.07550617049521617</v>
+        <v>0.1199452019080949</v>
       </c>
       <c r="E24">
-        <v>-0.04106323361945912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05046096719245126</v>
+      </c>
+      <c r="F24">
+        <v>0.02255798666195199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.1056791655448004</v>
+        <v>0.08492735831385705</v>
       </c>
       <c r="C25">
-        <v>0.03383509501585846</v>
+        <v>0.005276863269532158</v>
       </c>
       <c r="D25">
-        <v>0.06604384093790382</v>
+        <v>0.1089060932524733</v>
       </c>
       <c r="E25">
-        <v>-0.05067897647492623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03326140371261895</v>
+      </c>
+      <c r="F25">
+        <v>0.02642243595503955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04186976402350039</v>
+        <v>0.05590109474001705</v>
       </c>
       <c r="C26">
-        <v>-0.0173964580157033</v>
+        <v>0.01445024584791097</v>
       </c>
       <c r="D26">
-        <v>0.01749716215620402</v>
+        <v>0.04186194126891053</v>
       </c>
       <c r="E26">
-        <v>-0.01032950055992081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02582145334175504</v>
+      </c>
+      <c r="F26">
+        <v>-0.009340732529273608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.07035089946253029</v>
+        <v>0.1426638898882498</v>
       </c>
       <c r="C28">
-        <v>-0.2263259943605292</v>
+        <v>0.01710579080474004</v>
       </c>
       <c r="D28">
-        <v>-0.2076897309166046</v>
+        <v>-0.265383383167335</v>
       </c>
       <c r="E28">
-        <v>-0.05632652001260059</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.06864517238781681</v>
+      </c>
+      <c r="F28">
+        <v>0.01978159080599043</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02887353843405721</v>
+        <v>0.02697511337527776</v>
       </c>
       <c r="C29">
-        <v>0.009096244757545544</v>
+        <v>0.008383157098775551</v>
       </c>
       <c r="D29">
-        <v>-0.001755633328996216</v>
+        <v>0.0312400376010777</v>
       </c>
       <c r="E29">
-        <v>-0.006913222443306834</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01156464965430569</v>
+      </c>
+      <c r="F29">
+        <v>-0.01222725449769867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1165982692567496</v>
+        <v>0.06189115325532097</v>
       </c>
       <c r="C30">
-        <v>0.05536721798467432</v>
+        <v>0.004531615709921073</v>
       </c>
       <c r="D30">
-        <v>0.02830039214024944</v>
+        <v>0.08591922976559041</v>
       </c>
       <c r="E30">
-        <v>-0.02477632387103049</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02356584615300473</v>
+      </c>
+      <c r="F30">
+        <v>0.09291151272291458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03033248419536004</v>
+        <v>0.04904263059183615</v>
       </c>
       <c r="C31">
-        <v>0.007293077918168649</v>
+        <v>0.01502591923714158</v>
       </c>
       <c r="D31">
-        <v>0.02662964953241201</v>
+        <v>0.0263806515039541</v>
       </c>
       <c r="E31">
-        <v>-0.01633817767990905</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02720329409625652</v>
+      </c>
+      <c r="F31">
+        <v>-0.005837430693398401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06263143205268094</v>
+        <v>0.04864224455513674</v>
       </c>
       <c r="C32">
-        <v>-0.001189455863444427</v>
+        <v>-0.0006564897226957326</v>
       </c>
       <c r="D32">
-        <v>0.03106235844801143</v>
+        <v>0.03357247969118946</v>
       </c>
       <c r="E32">
-        <v>-0.009001970271095247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.03056018747255779</v>
+      </c>
+      <c r="F32">
+        <v>0.007541245243399544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1086495328773688</v>
+        <v>0.08950852510157901</v>
       </c>
       <c r="C33">
-        <v>0.04854936963649266</v>
+        <v>0.008523604343223967</v>
       </c>
       <c r="D33">
-        <v>0.0382720538864364</v>
+        <v>0.09751083055526531</v>
       </c>
       <c r="E33">
-        <v>-0.07919985778409409</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04587629707046946</v>
+      </c>
+      <c r="F33">
+        <v>0.03820433680827436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.09188597646513763</v>
+        <v>0.06794209274067849</v>
       </c>
       <c r="C34">
-        <v>0.02546394647129323</v>
+        <v>0.01180859258163702</v>
       </c>
       <c r="D34">
-        <v>0.06099997899038154</v>
+        <v>0.1040493350678371</v>
       </c>
       <c r="E34">
-        <v>-0.042588353981802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03503667577285616</v>
+      </c>
+      <c r="F34">
+        <v>0.03601277104610233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01444662072944534</v>
+        <v>0.02486311720336868</v>
       </c>
       <c r="C35">
-        <v>0.01191900848380108</v>
+        <v>0.002353422397460762</v>
       </c>
       <c r="D35">
-        <v>-0.001815031244223933</v>
+        <v>0.01227508748940467</v>
       </c>
       <c r="E35">
-        <v>-0.005949824458012958</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01069663052387577</v>
+      </c>
+      <c r="F35">
+        <v>0.006745690444064811</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02345890199309319</v>
+        <v>0.02527485553758826</v>
       </c>
       <c r="C36">
-        <v>0.01343924887874888</v>
+        <v>0.007427853285369371</v>
       </c>
       <c r="D36">
-        <v>-0.0004184882134178305</v>
+        <v>0.03887378230891923</v>
       </c>
       <c r="E36">
-        <v>-0.004507647651658869</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01680010840660737</v>
+      </c>
+      <c r="F36">
+        <v>0.01340608666808894</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.006492541166579471</v>
+        <v>0.001525838702438223</v>
       </c>
       <c r="C38">
-        <v>0.001528227923222742</v>
+        <v>0.0002333407033829958</v>
       </c>
       <c r="D38">
-        <v>0.001085912860814053</v>
+        <v>0.0007428374156615287</v>
       </c>
       <c r="E38">
-        <v>-0.000305832195406012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001161175436742028</v>
+      </c>
+      <c r="F38">
+        <v>-0.001081316288131336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1637639037049825</v>
+        <v>0.1071466367339385</v>
       </c>
       <c r="C39">
-        <v>0.0826783023928799</v>
+        <v>0.01671428863541037</v>
       </c>
       <c r="D39">
-        <v>0.1072221216023827</v>
+        <v>0.1536069268019352</v>
       </c>
       <c r="E39">
-        <v>-0.07728345521380071</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06089515421835178</v>
+      </c>
+      <c r="F39">
+        <v>0.02398014663298781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.008905165769248416</v>
+        <v>0.03719483554588587</v>
       </c>
       <c r="C40">
-        <v>0.001876883829122066</v>
+        <v>0.007229638225480529</v>
       </c>
       <c r="D40">
-        <v>0.01122428658745888</v>
+        <v>0.03328788621701828</v>
       </c>
       <c r="E40">
-        <v>0.01605525350978005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.002444086968389219</v>
+      </c>
+      <c r="F40">
+        <v>-0.01522485745603839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01689692580502941</v>
+        <v>0.02650690372737425</v>
       </c>
       <c r="C41">
-        <v>-0.02715751071279563</v>
+        <v>0.006513259716936276</v>
       </c>
       <c r="D41">
-        <v>0.01061845226553512</v>
+        <v>0.01100363176822518</v>
       </c>
       <c r="E41">
-        <v>-0.00719227874020084</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01221160520504012</v>
+      </c>
+      <c r="F41">
+        <v>-0.009141171432377519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02611485695744835</v>
+        <v>0.04029871148307396</v>
       </c>
       <c r="C43">
-        <v>-0.02386754500174871</v>
+        <v>0.006660671091177159</v>
       </c>
       <c r="D43">
-        <v>0.02228550396532875</v>
+        <v>0.02028178024366087</v>
       </c>
       <c r="E43">
-        <v>-0.0299555154784433</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02397572495760261</v>
+      </c>
+      <c r="F43">
+        <v>-0.0132593957917185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.144041477205247</v>
+        <v>0.0761243592627254</v>
       </c>
       <c r="C44">
-        <v>0.07046868994838937</v>
+        <v>0.02126239059684954</v>
       </c>
       <c r="D44">
-        <v>0.05382931144569308</v>
+        <v>0.09758997510800889</v>
       </c>
       <c r="E44">
-        <v>-0.03455059745525917</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07332684458240271</v>
+      </c>
+      <c r="F44">
+        <v>0.1710967757758041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01505352700039332</v>
+        <v>0.02319493867948753</v>
       </c>
       <c r="C46">
-        <v>-0.0195224796401882</v>
+        <v>0.00354592589944561</v>
       </c>
       <c r="D46">
-        <v>0.005910437384774235</v>
+        <v>0.01262974931318677</v>
       </c>
       <c r="E46">
-        <v>-0.03378363773985987</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02218179958319605</v>
+      </c>
+      <c r="F46">
+        <v>-0.0003239733279048361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0386738230204433</v>
+        <v>0.05134423096197939</v>
       </c>
       <c r="C47">
-        <v>-0.008522671209060266</v>
+        <v>0.003270152967897618</v>
       </c>
       <c r="D47">
-        <v>0.008782703658425282</v>
+        <v>0.01301139605288031</v>
       </c>
       <c r="E47">
-        <v>-0.006534378268238112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02274857061094568</v>
+      </c>
+      <c r="F47">
+        <v>-0.03947629706188054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03991027355314969</v>
+        <v>0.0478782083875645</v>
       </c>
       <c r="C48">
-        <v>0.01649585567164281</v>
+        <v>0.002637527782007343</v>
       </c>
       <c r="D48">
-        <v>-0.0001732962931300725</v>
+        <v>0.05114454609428178</v>
       </c>
       <c r="E48">
-        <v>-0.01188124387407847</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.005191353678478334</v>
+      </c>
+      <c r="F48">
+        <v>0.006203640183730228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2225760037003663</v>
+        <v>0.2023739429262853</v>
       </c>
       <c r="C49">
-        <v>-0.04370867112952903</v>
+        <v>0.01761976783106638</v>
       </c>
       <c r="D49">
-        <v>0.0493032365635453</v>
+        <v>-0.0111310106876735</v>
       </c>
       <c r="E49">
-        <v>0.01796982257855298</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.03254820874458909</v>
+      </c>
+      <c r="F49">
+        <v>0.02909729536354392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0391663381630432</v>
+        <v>0.04865333846426832</v>
       </c>
       <c r="C50">
-        <v>0.003343650713898731</v>
+        <v>0.0110503728234807</v>
       </c>
       <c r="D50">
-        <v>0.03423192354981335</v>
+        <v>0.02587957948194415</v>
       </c>
       <c r="E50">
-        <v>-0.01120570610938918</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02910259072154213</v>
+      </c>
+      <c r="F50">
+        <v>0.006320642704237578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.00865916909740156</v>
+        <v>0.002172101073464242</v>
       </c>
       <c r="C51">
-        <v>-0.01153847503529082</v>
+        <v>0.0005513680130609828</v>
       </c>
       <c r="D51">
-        <v>-0.009767519061832951</v>
+        <v>-0.002235925792869559</v>
       </c>
       <c r="E51">
-        <v>-0.01563544626164939</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-3.978227764975774e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.004087121122638766</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1337540088136059</v>
+        <v>0.145223818368178</v>
       </c>
       <c r="C52">
-        <v>0.0726049764960798</v>
+        <v>0.01395223227438638</v>
       </c>
       <c r="D52">
-        <v>0.03071614248507894</v>
+        <v>0.04888669964112285</v>
       </c>
       <c r="E52">
-        <v>0.0124998154925272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02403392321114477</v>
+      </c>
+      <c r="F52">
+        <v>0.03856695058518562</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1513886253811776</v>
+        <v>0.1738171216393317</v>
       </c>
       <c r="C53">
-        <v>-0.0001496343661358935</v>
+        <v>0.01690010605242949</v>
       </c>
       <c r="D53">
-        <v>-0.009681630252418616</v>
+        <v>0.008117432660935106</v>
       </c>
       <c r="E53">
-        <v>0.02733943073755152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03471389851155494</v>
+      </c>
+      <c r="F53">
+        <v>0.06922523467487339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04878876637113376</v>
+        <v>0.02222685138723468</v>
       </c>
       <c r="C54">
-        <v>0.001653328915336175</v>
+        <v>0.01225467024048112</v>
       </c>
       <c r="D54">
-        <v>0.0147329615697752</v>
+        <v>0.0332819976979269</v>
       </c>
       <c r="E54">
-        <v>-0.01218648443507614</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01457634280009299</v>
+      </c>
+      <c r="F54">
+        <v>-0.003062808137744168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08665344272268106</v>
+        <v>0.1145348486962335</v>
       </c>
       <c r="C55">
-        <v>0.02451631914624269</v>
+        <v>0.01548121341576325</v>
       </c>
       <c r="D55">
-        <v>-0.007483145892001395</v>
+        <v>0.01073288330694219</v>
       </c>
       <c r="E55">
-        <v>-0.03339336443204996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03112729147768514</v>
+      </c>
+      <c r="F55">
+        <v>0.04536455884283684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1597596383194237</v>
+        <v>0.1775313965354552</v>
       </c>
       <c r="C56">
-        <v>0.02027829376213474</v>
+        <v>0.0143252425414455</v>
       </c>
       <c r="D56">
-        <v>0.03210532771252229</v>
+        <v>0.005593979981652089</v>
       </c>
       <c r="E56">
-        <v>-0.008586854906300472</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04059668793653285</v>
+      </c>
+      <c r="F56">
+        <v>0.04733464942544422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04540047873334645</v>
+        <v>0.04646532476846951</v>
       </c>
       <c r="C58">
-        <v>-0.002250706002194444</v>
+        <v>0.001293477159944819</v>
       </c>
       <c r="D58">
-        <v>0.01647848981861131</v>
+        <v>0.06836478673129721</v>
       </c>
       <c r="E58">
-        <v>0.008005536813962551</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02470267360601933</v>
+      </c>
+      <c r="F58">
+        <v>-0.04089796793347031</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1351023497079721</v>
+        <v>0.1717272877165244</v>
       </c>
       <c r="C59">
-        <v>-0.2144083366010454</v>
+        <v>0.01761918997277365</v>
       </c>
       <c r="D59">
-        <v>-0.1821565768266344</v>
+        <v>-0.2227428752495138</v>
       </c>
       <c r="E59">
-        <v>-0.05542010947120114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.047112212660384</v>
+      </c>
+      <c r="F59">
+        <v>-0.03068973874385197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2796475049340035</v>
+        <v>0.2350994654396657</v>
       </c>
       <c r="C60">
-        <v>0.04564009309504331</v>
+        <v>-0.004176596332625981</v>
       </c>
       <c r="D60">
-        <v>0.04843055971606314</v>
+        <v>0.04289576082232855</v>
       </c>
       <c r="E60">
-        <v>0.09524761883109147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.0111618929897922</v>
+      </c>
+      <c r="F60">
+        <v>-0.02347029651982145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1240026423956131</v>
+        <v>0.08345138414589852</v>
       </c>
       <c r="C61">
-        <v>0.0551766358175959</v>
+        <v>0.01276303115653664</v>
       </c>
       <c r="D61">
-        <v>0.04699014180317932</v>
+        <v>0.1159871356849356</v>
       </c>
       <c r="E61">
-        <v>-0.05923597038733643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04094273275448643</v>
+      </c>
+      <c r="F61">
+        <v>0.01233122982224527</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1619128914147297</v>
+        <v>0.1699640368731082</v>
       </c>
       <c r="C62">
-        <v>0.01075650396002637</v>
+        <v>0.01788792457748471</v>
       </c>
       <c r="D62">
-        <v>0.01236161933059826</v>
+        <v>0.01011859268071163</v>
       </c>
       <c r="E62">
-        <v>0.002761581855605527</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03688590980628297</v>
+      </c>
+      <c r="F62">
+        <v>0.02923405519459599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04785031807801847</v>
+        <v>0.04298544990903098</v>
       </c>
       <c r="C63">
-        <v>0.01804768840580229</v>
+        <v>0.0026244836354258</v>
       </c>
       <c r="D63">
-        <v>0.008799524700154916</v>
+        <v>0.0561544465666192</v>
       </c>
       <c r="E63">
-        <v>-0.03049703476441397</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0205668481227557</v>
+      </c>
+      <c r="F63">
+        <v>0.006675703428833648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09742253040877455</v>
+        <v>0.1109409141512351</v>
       </c>
       <c r="C64">
-        <v>0.0154145623493964</v>
+        <v>0.0111410035486443</v>
       </c>
       <c r="D64">
-        <v>0.03194830845458407</v>
+        <v>0.04137738709770476</v>
       </c>
       <c r="E64">
-        <v>-0.004832556475003391</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02040308245161503</v>
+      </c>
+      <c r="F64">
+        <v>0.02810319033125245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1168558425220791</v>
+        <v>0.1466447237328352</v>
       </c>
       <c r="C65">
-        <v>0.006401477588321664</v>
+        <v>0.03127127273042091</v>
       </c>
       <c r="D65">
-        <v>-0.02021757531444844</v>
+        <v>-0.04184807107961504</v>
       </c>
       <c r="E65">
-        <v>-0.001958590904820001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.001292835202560442</v>
+      </c>
+      <c r="F65">
+        <v>0.04351291461259748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1863675535956384</v>
+        <v>0.1278629372317626</v>
       </c>
       <c r="C66">
-        <v>0.08113554941382267</v>
+        <v>0.01453091335478153</v>
       </c>
       <c r="D66">
-        <v>0.1203244272826405</v>
+        <v>0.1429539934820273</v>
       </c>
       <c r="E66">
-        <v>-0.08141858500375222</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06821675876221737</v>
+      </c>
+      <c r="F66">
+        <v>0.0289672305929625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07887090079475172</v>
+        <v>0.06388797467019709</v>
       </c>
       <c r="C67">
-        <v>0.03516522062933523</v>
+        <v>0.002927638669426117</v>
       </c>
       <c r="D67">
-        <v>0.009771013117731316</v>
+        <v>0.05625162332820818</v>
       </c>
       <c r="E67">
-        <v>-0.07690508359842674</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01801351383885761</v>
+      </c>
+      <c r="F67">
+        <v>-0.0399055815398552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.06558632719271734</v>
+        <v>0.1170482685775401</v>
       </c>
       <c r="C68">
-        <v>-0.2059357347226012</v>
+        <v>0.02746632372451666</v>
       </c>
       <c r="D68">
-        <v>-0.1858415955477067</v>
+        <v>-0.2609524665029543</v>
       </c>
       <c r="E68">
-        <v>-0.03918841402174729</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08546725366172447</v>
+      </c>
+      <c r="F68">
+        <v>0.02017722467955537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03303454108511703</v>
+        <v>0.03910184996450383</v>
       </c>
       <c r="C69">
-        <v>0.0043207304529433</v>
+        <v>0.0008732613969457201</v>
       </c>
       <c r="D69">
-        <v>-0.01488585733594544</v>
+        <v>0.008204924252250102</v>
       </c>
       <c r="E69">
-        <v>-0.02776560337729532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02379663666823604</v>
+      </c>
+      <c r="F69">
+        <v>-0.005926073887617796</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02642941743629731</v>
+        <v>0.06263439667636475</v>
       </c>
       <c r="C70">
-        <v>0.001406590885047222</v>
+        <v>-0.0286477253333139</v>
       </c>
       <c r="D70">
-        <v>-0.02900913191848541</v>
+        <v>0.02916872909256063</v>
       </c>
       <c r="E70">
-        <v>-0.03773054043230004</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.0483555000588491</v>
+      </c>
+      <c r="F70">
+        <v>-0.2351290660513454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.07627341582867588</v>
+        <v>0.1361389544596015</v>
       </c>
       <c r="C71">
-        <v>-0.2164180505691143</v>
+        <v>0.03195831501245845</v>
       </c>
       <c r="D71">
-        <v>-0.2007838965654005</v>
+        <v>-0.2751330731510357</v>
       </c>
       <c r="E71">
-        <v>-0.05202384574244654</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09535450393983361</v>
+      </c>
+      <c r="F71">
+        <v>0.02415129615520761</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1334231597692665</v>
+        <v>0.1412923495888219</v>
       </c>
       <c r="C72">
-        <v>-0.03345366674789098</v>
+        <v>0.02494237096812191</v>
       </c>
       <c r="D72">
-        <v>-0.00187024594053935</v>
+        <v>0.001572680215078241</v>
       </c>
       <c r="E72">
-        <v>-0.01926127136787861</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04309324859716418</v>
+      </c>
+      <c r="F72">
+        <v>0.0296739441643105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2204974713897287</v>
+        <v>0.2016415283568183</v>
       </c>
       <c r="C73">
-        <v>-0.02795364745242934</v>
+        <v>0.01183940391565563</v>
       </c>
       <c r="D73">
-        <v>0.006226961654318501</v>
+        <v>0.01440888252769334</v>
       </c>
       <c r="E73">
-        <v>-0.03388398200674972</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.0655328147312576</v>
+      </c>
+      <c r="F73">
+        <v>0.02520198982608537</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1089412364286983</v>
+        <v>0.09442216469055048</v>
       </c>
       <c r="C74">
-        <v>-0.001641064389732224</v>
+        <v>0.01220346279665439</v>
       </c>
       <c r="D74">
-        <v>0.03045135662516079</v>
+        <v>0.01969333495919356</v>
       </c>
       <c r="E74">
-        <v>-0.01519686799106885</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04841438410050242</v>
+      </c>
+      <c r="F74">
+        <v>0.05069225013819504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1288966428567796</v>
+        <v>0.1290812921684784</v>
       </c>
       <c r="C75">
-        <v>0.01625276830620311</v>
+        <v>0.02664201746108014</v>
       </c>
       <c r="D75">
-        <v>0.04254525625035877</v>
+        <v>0.03256626871507573</v>
       </c>
       <c r="E75">
-        <v>-0.008854302485795074</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06080518843570114</v>
+      </c>
+      <c r="F75">
+        <v>0.01498232998424821</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01312274234325274</v>
+        <v>0.002939705713323111</v>
       </c>
       <c r="C76">
-        <v>-0.01124214394115934</v>
+        <v>0.0007286136422675219</v>
       </c>
       <c r="D76">
-        <v>-0.009225002361482288</v>
+        <v>-0.002113156738548205</v>
       </c>
       <c r="E76">
-        <v>-0.0115070945460893</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0003840887729012062</v>
+      </c>
+      <c r="F76">
+        <v>0.00390061593310147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08904350184691122</v>
+        <v>0.07930039473242168</v>
       </c>
       <c r="C77">
-        <v>0.08026741824738542</v>
+        <v>0.008666923518268177</v>
       </c>
       <c r="D77">
-        <v>0.0803270337808505</v>
+        <v>0.1194097424172342</v>
       </c>
       <c r="E77">
-        <v>0.01263123186392057</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.03956127775683342</v>
+      </c>
+      <c r="F77">
+        <v>0.02934818164170553</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09649897904642621</v>
+        <v>0.1032004282737429</v>
       </c>
       <c r="C78">
-        <v>-0.06589775340194803</v>
+        <v>0.03984457939352494</v>
       </c>
       <c r="D78">
-        <v>0.1103945827129462</v>
+        <v>0.1166836268318205</v>
       </c>
       <c r="E78">
-        <v>-0.1771826543657186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07958430220513482</v>
+      </c>
+      <c r="F78">
+        <v>0.05851600730618827</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1405678637984838</v>
+        <v>0.1642510391309904</v>
       </c>
       <c r="C79">
-        <v>0.0001222295768427217</v>
+        <v>0.02060283517557243</v>
       </c>
       <c r="D79">
-        <v>0.05799709910763345</v>
+        <v>0.01907052282077873</v>
       </c>
       <c r="E79">
-        <v>0.0134848385247351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.0500503317109089</v>
+      </c>
+      <c r="F79">
+        <v>0.006406722710190731</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08642386579424567</v>
+        <v>0.08146853815446002</v>
       </c>
       <c r="C80">
-        <v>0.06599823411669879</v>
+        <v>-0.0007393795268562092</v>
       </c>
       <c r="D80">
-        <v>0.03724711753729266</v>
+        <v>0.05765062023813762</v>
       </c>
       <c r="E80">
-        <v>-0.05699830009615773</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03603933946174143</v>
+      </c>
+      <c r="F80">
+        <v>-0.02574466027209403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1455108818339528</v>
+        <v>0.1232604980836188</v>
       </c>
       <c r="C81">
-        <v>0.01782863812966619</v>
+        <v>0.03040901036966573</v>
       </c>
       <c r="D81">
-        <v>0.05735261093344484</v>
+        <v>0.01712179664300438</v>
       </c>
       <c r="E81">
-        <v>-0.02229885630513225</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06044145982973388</v>
+      </c>
+      <c r="F81">
+        <v>0.01057907984748403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1703063830778016</v>
+        <v>0.1640355366287994</v>
       </c>
       <c r="C82">
-        <v>0.03353471191381347</v>
+        <v>0.02266415179860921</v>
       </c>
       <c r="D82">
-        <v>0.02642232112826126</v>
+        <v>0.008778427161569603</v>
       </c>
       <c r="E82">
-        <v>-0.01367605596965765</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0332712330097161</v>
+      </c>
+      <c r="F82">
+        <v>0.07181258830512677</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07485117777539119</v>
+        <v>0.06199427888894503</v>
       </c>
       <c r="C83">
-        <v>0.01970149956637906</v>
+        <v>0.003175019104404804</v>
       </c>
       <c r="D83">
-        <v>-0.002376860105946074</v>
+        <v>0.04938036485564221</v>
       </c>
       <c r="E83">
-        <v>0.05455680564263819</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005770828990661231</v>
+      </c>
+      <c r="F83">
+        <v>-0.03965469836488379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07566782005712661</v>
+        <v>0.05860407506219174</v>
       </c>
       <c r="C84">
-        <v>0.02063520572630139</v>
+        <v>0.01075055735488842</v>
       </c>
       <c r="D84">
-        <v>0.00842254902375919</v>
+        <v>0.06654815229852606</v>
       </c>
       <c r="E84">
-        <v>0.0002511529501397772</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.005210367452325713</v>
+      </c>
+      <c r="F84">
+        <v>0.00712298083673022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1241299772296264</v>
+        <v>0.1386387216195525</v>
       </c>
       <c r="C85">
-        <v>-0.001568435509351274</v>
+        <v>0.02636993322145422</v>
       </c>
       <c r="D85">
-        <v>0.01771390653971448</v>
+        <v>0.01279090813559197</v>
       </c>
       <c r="E85">
-        <v>-0.001132175526664837</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04099690544067254</v>
+      </c>
+      <c r="F85">
+        <v>0.04582956052660127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1238402360751498</v>
+        <v>0.09590969745892863</v>
       </c>
       <c r="C86">
-        <v>-0.226533219586687</v>
+        <v>-0.005473572108625323</v>
       </c>
       <c r="D86">
-        <v>0.1960853676101729</v>
+        <v>0.03425150512177343</v>
       </c>
       <c r="E86">
-        <v>0.8894605844089695</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1670013429292786</v>
+      </c>
+      <c r="F86">
+        <v>-0.8981365435348998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1167763587958405</v>
+        <v>0.09557946824983617</v>
       </c>
       <c r="C87">
-        <v>0.1044055915268725</v>
+        <v>0.02212342480887973</v>
       </c>
       <c r="D87">
-        <v>-0.000449414489756058</v>
+        <v>0.09237356065155912</v>
       </c>
       <c r="E87">
-        <v>0.00161267917661399</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05411443847207918</v>
+      </c>
+      <c r="F87">
+        <v>0.06898554335540009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04771157895573384</v>
+        <v>0.06105317645160868</v>
       </c>
       <c r="C88">
-        <v>0.005013787125192997</v>
+        <v>0.0024046363642038</v>
       </c>
       <c r="D88">
-        <v>0.02997111865138073</v>
+        <v>0.05100118211970144</v>
       </c>
       <c r="E88">
-        <v>-0.03987886758640683</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02604376082939061</v>
+      </c>
+      <c r="F88">
+        <v>0.009434661449632144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1173612697650962</v>
+        <v>0.1348172527845209</v>
       </c>
       <c r="C89">
-        <v>-0.2819540057696834</v>
+        <v>0.009816681641175226</v>
       </c>
       <c r="D89">
-        <v>-0.2515377013233908</v>
+        <v>-0.2529326112437357</v>
       </c>
       <c r="E89">
-        <v>-0.02873934036781836</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.08936833540515582</v>
+      </c>
+      <c r="F89">
+        <v>0.007239988041909373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.08676522684524181</v>
+        <v>0.1479931829654084</v>
       </c>
       <c r="C90">
-        <v>-0.2236957725716516</v>
+        <v>0.02761911316873011</v>
       </c>
       <c r="D90">
-        <v>-0.2009746804772329</v>
+        <v>-0.2666491076676191</v>
       </c>
       <c r="E90">
-        <v>-0.03662471297283108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1094965892501117</v>
+      </c>
+      <c r="F90">
+        <v>0.00944985161684888</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.09039510797705493</v>
+        <v>0.1198122186847729</v>
       </c>
       <c r="C91">
-        <v>0.003361588927736679</v>
+        <v>0.01706751295698548</v>
       </c>
       <c r="D91">
-        <v>0.02806118129123405</v>
+        <v>-0.01020209440127285</v>
       </c>
       <c r="E91">
-        <v>0.009261644137605078</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05800391677915284</v>
+      </c>
+      <c r="F91">
+        <v>-0.01177614170222163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1008459955703696</v>
+        <v>0.1494673897790659</v>
       </c>
       <c r="C92">
-        <v>-0.2377552568297995</v>
+        <v>0.01912006246746712</v>
       </c>
       <c r="D92">
-        <v>-0.2410449429239119</v>
+        <v>-0.2905790644474571</v>
       </c>
       <c r="E92">
-        <v>-0.02085158754054956</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1025914328037707</v>
+      </c>
+      <c r="F92">
+        <v>0.003758667998623864</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.08537172964438838</v>
+        <v>0.1510896744392509</v>
       </c>
       <c r="C93">
-        <v>-0.2475164834606063</v>
+        <v>0.02374234345807194</v>
       </c>
       <c r="D93">
-        <v>-0.2216903049924277</v>
+        <v>-0.2661436280511974</v>
       </c>
       <c r="E93">
-        <v>-0.0293141552522357</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07644810113136777</v>
+      </c>
+      <c r="F93">
+        <v>0.01025541115208779</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1523382747513634</v>
+        <v>0.1321324606585558</v>
       </c>
       <c r="C94">
-        <v>0.01121558457013818</v>
+        <v>0.02374488724481975</v>
       </c>
       <c r="D94">
-        <v>0.03970687941917728</v>
+        <v>0.04404817672515129</v>
       </c>
       <c r="E94">
-        <v>-0.06202957885886966</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06111684762205416</v>
+      </c>
+      <c r="F94">
+        <v>0.03383200137942377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.121417730430553</v>
+        <v>0.1261111970574522</v>
       </c>
       <c r="C95">
-        <v>0.02106728934983342</v>
+        <v>0.004737778620225885</v>
       </c>
       <c r="D95">
-        <v>0.04808858199241334</v>
+        <v>0.0928888961083849</v>
       </c>
       <c r="E95">
-        <v>-0.04531321984677385</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04613214064914201</v>
+      </c>
+      <c r="F95">
+        <v>-0.009726899574052154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01441981320230578</v>
+        <v>0.09948423968656188</v>
       </c>
       <c r="C96">
-        <v>5.945046231985852e-05</v>
+        <v>-0.9887412687391469</v>
       </c>
       <c r="D96">
-        <v>0.0002648493715446051</v>
+        <v>-0.0352988617104661</v>
       </c>
       <c r="E96">
-        <v>-0.002439727349798662</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05781654133630935</v>
+      </c>
+      <c r="F96">
+        <v>0.04226482878388953</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.176759536728954</v>
+        <v>0.1897452254302169</v>
       </c>
       <c r="C97">
-        <v>-0.0375352733830982</v>
+        <v>-0.00934364067065451</v>
       </c>
       <c r="D97">
-        <v>0.04180437233262194</v>
+        <v>-0.01871752573303355</v>
       </c>
       <c r="E97">
-        <v>-0.06224820793108908</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.009801474986273286</v>
+      </c>
+      <c r="F97">
+        <v>-0.09921568531675581</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2435159901870226</v>
+        <v>0.2057545874205693</v>
       </c>
       <c r="C98">
-        <v>-0.001861545192617411</v>
+        <v>0.007316368642509181</v>
       </c>
       <c r="D98">
-        <v>-0.06829839104429368</v>
+        <v>0.008166927860173555</v>
       </c>
       <c r="E98">
-        <v>0.1192963035972186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09569724244305096</v>
+      </c>
+      <c r="F98">
+        <v>-0.1000327209490933</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04833739536139146</v>
+        <v>0.05595651509240772</v>
       </c>
       <c r="C99">
-        <v>-0.01854048426670502</v>
+        <v>-0.004316154469976101</v>
       </c>
       <c r="D99">
-        <v>0.004042321910446165</v>
+        <v>0.03731399785921934</v>
       </c>
       <c r="E99">
-        <v>-0.04674061607403444</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02483823217314539</v>
+      </c>
+      <c r="F99">
+        <v>0.002693893287288442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1211615044920256</v>
+        <v>0.1247030291303273</v>
       </c>
       <c r="C100">
-        <v>0.6281121905400306</v>
+        <v>-0.05186858857243547</v>
       </c>
       <c r="D100">
-        <v>-0.6778063276131485</v>
+        <v>0.3448087120203551</v>
       </c>
       <c r="E100">
-        <v>0.2350240362767967</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.893499233181416</v>
+      </c>
+      <c r="F100">
+        <v>-0.09104525953604879</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02879255928229301</v>
+        <v>0.02690149189377551</v>
       </c>
       <c r="C101">
-        <v>0.009135107516691278</v>
+        <v>0.008387078710780944</v>
       </c>
       <c r="D101">
-        <v>-0.001656780107782536</v>
+        <v>0.03094241805058118</v>
       </c>
       <c r="E101">
-        <v>-0.007996121951513441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01108545786172378</v>
+      </c>
+      <c r="F101">
+        <v>-0.01365527355377832</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
